--- a/新生成的学习计划.xlsx
+++ b/新生成的学习计划.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Part1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part2" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -398,7 +399,7 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>2021/12/22</v>
+        <v>2021/12/01</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">1.函数式编程的概念
@@ -414,7 +415,7 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>2021/12/23</v>
+        <v>2021/12/02</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">1.函数组合
@@ -428,7 +429,7 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>2021/12/24</v>
+        <v>2021/12/03</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
         <v xml:space="preserve">1.同步模式/异步模式
@@ -442,7 +443,7 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>2021/12/25</v>
+        <v>2021/12/04</v>
       </c>
       <c r="B5" t="str" xml:space="preserve">
         <v xml:space="preserve">1.Promise 类核心逻辑
@@ -456,7 +457,7 @@
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>2021/12/26</v>
+        <v>2021/12/05</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
         <v xml:space="preserve">1.then 中识别自身
@@ -473,7 +474,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2021/12/27</v>
+        <v>2021/12/06</v>
       </c>
       <c r="B7" t="str">
         <v>完成 Part1-1 作业</v>
@@ -481,7 +482,7 @@
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>2021/12/28</v>
+        <v>2021/12/07</v>
       </c>
       <c r="B8" t="str" xml:space="preserve">
         <v xml:space="preserve">1.let 与 const 
@@ -498,7 +499,7 @@
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>2021/12/29</v>
+        <v>2021/12/08</v>
       </c>
       <c r="B9" t="str" xml:space="preserve">
         <v xml:space="preserve">1.箭头函数和this
@@ -513,7 +514,7 @@
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>2021/12/30</v>
+        <v>2021/12/09</v>
       </c>
       <c r="B10" t="str" xml:space="preserve">
         <v xml:space="preserve">1.class 类
@@ -529,7 +530,7 @@
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>2021/12/31</v>
+        <v>2021/12/10</v>
       </c>
       <c r="B11" t="str" xml:space="preserve">
         <v xml:space="preserve">1.可迭代接口
@@ -544,7 +545,7 @@
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
-        <v>2022/01/01</v>
+        <v>2021/12/11</v>
       </c>
       <c r="B12" t="str" xml:space="preserve">
         <v xml:space="preserve">1.JS类型系统
@@ -556,7 +557,7 @@
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str">
-        <v>2022/01/02</v>
+        <v>2021/12/12</v>
       </c>
       <c r="B13" t="str" xml:space="preserve">
         <v xml:space="preserve">1.TypeScript 快速上手与配置
@@ -571,7 +572,7 @@
     </row>
     <row r="14" xml:space="preserve">
       <c r="A14" t="str">
-        <v>2022/01/03</v>
+        <v>2021/12/13</v>
       </c>
       <c r="B14" t="str" xml:space="preserve">
         <v xml:space="preserve">1.TS 枚举类型
@@ -587,7 +588,7 @@
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
-        <v>2022/01/04</v>
+        <v>2021/12/14</v>
       </c>
       <c r="B15" t="str" xml:space="preserve">
         <v xml:space="preserve">1.TS 类的基本使用
@@ -606,7 +607,7 @@
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
-        <v>2022/01/05</v>
+        <v>2021/12/15</v>
       </c>
       <c r="B16" t="str" xml:space="preserve">
         <v xml:space="preserve">内存管理与垃圾回收概述
@@ -621,7 +622,7 @@
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>2022/01/06</v>
+        <v>2021/12/16</v>
       </c>
       <c r="B17" t="str" xml:space="preserve">
         <v xml:space="preserve">V8垃圾回收策略
@@ -635,7 +636,7 @@
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str">
-        <v>2022/01/07</v>
+        <v>2021/12/17</v>
       </c>
       <c r="B18" t="str" xml:space="preserve">
         <v xml:space="preserve">Performance 工具介绍
@@ -652,7 +653,7 @@
     </row>
     <row r="19" xml:space="preserve">
       <c r="A19" t="str">
-        <v>2022/01/08</v>
+        <v>2021/12/18</v>
       </c>
       <c r="B19" t="str" xml:space="preserve">
         <v xml:space="preserve">V8引擎执行流程
@@ -667,7 +668,7 @@
     </row>
     <row r="20" xml:space="preserve">
       <c r="A20" t="str">
-        <v>2022/01/09</v>
+        <v>2021/12/19</v>
       </c>
       <c r="B20" t="str" xml:space="preserve">
         <v xml:space="preserve">闭包与垃圾回收
@@ -684,7 +685,7 @@
     </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
-        <v>2022/01/10</v>
+        <v>2021/12/20</v>
       </c>
       <c r="B21" t="str" xml:space="preserve">
         <v xml:space="preserve">防抖
@@ -699,7 +700,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2022/01/11</v>
+        <v>2021/12/21</v>
       </c>
       <c r="B22" t="str">
         <v>完成 Part1-2 作业</v>
@@ -710,7 +711,7 @@
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
-        <v>2022/01/12</v>
+        <v>2021/12/22</v>
       </c>
       <c r="B23" t="str" xml:space="preserve">
         <v xml:space="preserve">工程化的定义和主要解决的问题
@@ -729,7 +730,7 @@
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
-        <v>2022/01/13</v>
+        <v>2021/12/23</v>
       </c>
       <c r="B24" t="str" xml:space="preserve">
         <v xml:space="preserve">自定义 Generator
@@ -745,7 +746,7 @@
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
-        <v>2022/01/14</v>
+        <v>2021/12/24</v>
       </c>
       <c r="B25" t="str" xml:space="preserve">
         <v xml:space="preserve">自动化构建概述
@@ -761,4 +762,288 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C25"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>学习目标</v>
+      </c>
+      <c r="C1" t="str">
+        <v>对应视频</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>2021/12/25</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.Gulp 基本使用
+2.Gulp 组合/异步任务
+3.Gulp 构建核心原理
+4.Gulp 文件操作
+5.Gulp 案例-样式/脚本/页面
+6.Gulp 案例-自动加载插件</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Part2-1 任务三 视频 10~20</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>2021/12/26</v>
+      </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.Gulp 案例-开发服务器
+2.Gulp 案例-监视及构建优化
+3.Gulp 案例-useref文件引用
+4.Gulp 案例-文件压缩
+5.Gulp 案例-重构及补充</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Part2-1 任务三 视频 21~26</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>2021/12/27</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.封装工作流
+2.FIS 使用 (仅了解)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Part2-1 任务三 视频 27~35</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>2021/12/28</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.模块化开发概述
+2.ES Modules 特性
+3.ES Modules 导入导出
+4.ES Modules in Node.js</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Part2-2 任务一 视频 1~15</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>2021/12/29</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.webpack 上手
+2.webpack 配置文件
+3.css-loader
+4.style-loader
+5.less-loader</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Part2-2 任务二 视频 1~7</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>2021/12/30</v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.browserslistrc 工作流程
+2.postcss及loader
+3.importLoaders属性
+4.file-loader</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Part2-2 任务二 视频 8~12</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>2021/12/31</v>
+      </c>
+      <c r="B8" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.设置图片与输出
+2.url-loader处理图片
+3.asset处理图片/图标
+4.webpack插件使用
+5.html-webpack-plugin
+6.copy-webpack-plugin</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Part2-2 任务二 视频 13~19</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>2022/01/01</v>
+      </c>
+      <c r="B9" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.babel 使用
+2.babel-loader 使用
+3.ployfill 配置
+4.webpack-dev-server 初始
+5.webpack-dev-middleware</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Part2-2 任务二 视频 20~24</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>2022/01/02</v>
+      </c>
+      <c r="B10" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.HMR 功能使用
+2.React热更新
+3.Vue 热更新
+4.output 中的 path
+5.devserver 中的 path
+6.devServer 常用配置</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Part2-2 任务二 视频 25~30</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>2022/01/03</v>
+      </c>
+      <c r="B11" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.proxy 代理设置
+2.resolve 模块解析规则
+3.source-map 作用
+4.devtool 详细说明</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Part2-2 任务二 视频 31~34</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>2022/01/04</v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.ts-loader 编译 TS
+2.babel-loader 编译 TS
+3.加载 vue 文件
+4.区分打包环境
+5.合并生产环境配置
+6.合并开发环境配置</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Part2-2 任务二 视频 35~40</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>2022/01/05</v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.代码拆分方式
+2.splitchunks 配置
+3.import 动态导入配置
+4.runtimeChunk 优化配置
+5.代码懒加载</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Part2-2 任务二 视频 41~45</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>2022/01/06</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.prefetch 与 preload
+2.第三方扩展设置 CDN
+3.Dll 库 打包与使用
+4.CSS 抽离与压缩</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Part2-2 任务二 视频 46~50</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>2022/01/07</v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.TerserPlugin 压缩 JS
+2.scope hoisting
+3.usedExports 配置
+4.sideEffects 配置</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Part2-2 任务二 视频 51~54</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>2022/01/08</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.CSS-TreeShaking
+2.资源压缩
+3.inlineChunkHtmlPlugin
+4.webpack 打包 Library
+5.打包时间和内容分析</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Part2-2 任务二 视频 55~59</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>2022/01/09</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.模块打包工具由来
+2.webpack上手/配置/原理
+3.资源模块加载/导入
+4.常用加载器分类
+5.webpack加载资源的方式</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Part2-2 任务二 视频 1~13</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>2022/01/10</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.webpack 核心工作原理
+2.开发一个 loader
+3.插件机制介绍
+4.自动清除目录
+5.自动生成 html
+6.开发一个插件
+7.自动编译
+8.Dev Server 使用</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Part2-2 任务二 视频 14~28</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
+  </ignoredErrors>
+</worksheet>
 </file>